--- a/Code/Results/Cases/Case_2_81/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_81/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006507535121691</v>
+        <v>1.031467113740999</v>
       </c>
       <c r="D2">
-        <v>1.022618960419178</v>
+        <v>1.035531834160866</v>
       </c>
       <c r="E2">
-        <v>1.008981134048431</v>
+        <v>1.051332613646209</v>
       </c>
       <c r="F2">
-        <v>1.01343128071291</v>
+        <v>1.056530000849288</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043698755514817</v>
+        <v>1.035321186475805</v>
       </c>
       <c r="J2">
-        <v>1.028495333925743</v>
+        <v>1.036602680376708</v>
       </c>
       <c r="K2">
-        <v>1.033771920506825</v>
+        <v>1.038328170421941</v>
       </c>
       <c r="L2">
-        <v>1.020316749496733</v>
+        <v>1.054084408225717</v>
       </c>
       <c r="M2">
-        <v>1.024706614814236</v>
+        <v>1.059267459768043</v>
       </c>
       <c r="N2">
-        <v>1.029955915269983</v>
+        <v>1.038074775082832</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010543664413831</v>
+        <v>1.03230456995521</v>
       </c>
       <c r="D3">
-        <v>1.025541305557067</v>
+        <v>1.036156212083558</v>
       </c>
       <c r="E3">
-        <v>1.014361136264139</v>
+        <v>1.052555716260776</v>
       </c>
       <c r="F3">
-        <v>1.019079260037582</v>
+        <v>1.057813192493796</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044778888272586</v>
+        <v>1.035493991641943</v>
       </c>
       <c r="J3">
-        <v>1.030750967812004</v>
+        <v>1.037082594133174</v>
       </c>
       <c r="K3">
-        <v>1.035857486736938</v>
+        <v>1.038762454573666</v>
       </c>
       <c r="L3">
-        <v>1.024813502976215</v>
+        <v>1.055119080381258</v>
       </c>
       <c r="M3">
-        <v>1.029473702320815</v>
+        <v>1.060363113860959</v>
       </c>
       <c r="N3">
-        <v>1.032214752415086</v>
+        <v>1.038555370371879</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013101826750634</v>
+        <v>1.03284664574786</v>
       </c>
       <c r="D4">
-        <v>1.027395745479662</v>
+        <v>1.036560334472244</v>
       </c>
       <c r="E4">
-        <v>1.017772933067086</v>
+        <v>1.053348056503081</v>
       </c>
       <c r="F4">
-        <v>1.022660634504482</v>
+        <v>1.058644448253293</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04545419086684</v>
+        <v>1.035604701691443</v>
       </c>
       <c r="J4">
-        <v>1.032176222186552</v>
+        <v>1.037392660709816</v>
       </c>
       <c r="K4">
-        <v>1.037174400028509</v>
+        <v>1.039042882967115</v>
       </c>
       <c r="L4">
-        <v>1.027661484254569</v>
+        <v>1.055788927128594</v>
       </c>
       <c r="M4">
-        <v>1.032493047173905</v>
+        <v>1.061072464738002</v>
       </c>
       <c r="N4">
-        <v>1.033642030814324</v>
+        <v>1.038865877278625</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014164902209975</v>
+        <v>1.033074577807439</v>
       </c>
       <c r="D5">
-        <v>1.028166869234174</v>
+        <v>1.036730252095992</v>
       </c>
       <c r="E5">
-        <v>1.019191342212233</v>
+        <v>1.053681375292724</v>
       </c>
       <c r="F5">
-        <v>1.024149454593894</v>
+        <v>1.05899413523252</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045732558979208</v>
+        <v>1.035650978843097</v>
       </c>
       <c r="J5">
-        <v>1.032767428148817</v>
+        <v>1.037522899481397</v>
       </c>
       <c r="K5">
-        <v>1.037720441675815</v>
+        <v>1.039160634759524</v>
       </c>
       <c r="L5">
-        <v>1.028844598153845</v>
+        <v>1.05607061391045</v>
       </c>
       <c r="M5">
-        <v>1.033747379380052</v>
+        <v>1.061370769700054</v>
       </c>
       <c r="N5">
-        <v>1.034234076356869</v>
+        <v>1.0389963010042</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01434268357028</v>
+        <v>1.033112851117708</v>
       </c>
       <c r="D6">
-        <v>1.028295854148948</v>
+        <v>1.036758783415346</v>
       </c>
       <c r="E6">
-        <v>1.019428586276562</v>
+        <v>1.053737353848258</v>
       </c>
       <c r="F6">
-        <v>1.024398470382459</v>
+        <v>1.05905286255421</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04577897747921</v>
+        <v>1.035658733406488</v>
       </c>
       <c r="J6">
-        <v>1.032866233515574</v>
+        <v>1.037544760482822</v>
       </c>
       <c r="K6">
-        <v>1.037811685451031</v>
+        <v>1.039180397551244</v>
       </c>
       <c r="L6">
-        <v>1.029042433587129</v>
+        <v>1.056117915260355</v>
       </c>
       <c r="M6">
-        <v>1.033957125251515</v>
+        <v>1.061420861937784</v>
       </c>
       <c r="N6">
-        <v>1.034333022038579</v>
+        <v>1.039018193050755</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013116079694468</v>
+        <v>1.032849691217979</v>
       </c>
       <c r="D7">
-        <v>1.027406082270915</v>
+        <v>1.036562604824954</v>
       </c>
       <c r="E7">
-        <v>1.017791947524963</v>
+        <v>1.05335250946366</v>
       </c>
       <c r="F7">
-        <v>1.022680593207324</v>
+        <v>1.058649119894582</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04545793200018</v>
+        <v>1.035605321092246</v>
       </c>
       <c r="J7">
-        <v>1.032184152922686</v>
+        <v>1.037394401412483</v>
       </c>
       <c r="K7">
-        <v>1.037181725807707</v>
+        <v>1.0390444569247</v>
       </c>
       <c r="L7">
-        <v>1.027677348020473</v>
+        <v>1.055792690713323</v>
       </c>
       <c r="M7">
-        <v>1.032509865757957</v>
+        <v>1.061076450333927</v>
       </c>
       <c r="N7">
-        <v>1.033649972813013</v>
+        <v>1.03886762045329</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007882902598764</v>
+        <v>1.031750096928357</v>
       </c>
       <c r="D8">
-        <v>1.023614300594958</v>
+        <v>1.035742822427427</v>
       </c>
       <c r="E8">
-        <v>1.01081414617419</v>
+        <v>1.051745778763438</v>
       </c>
       <c r="F8">
-        <v>1.015355670138189</v>
+        <v>1.056963466311568</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044068758282328</v>
+        <v>1.03537981560708</v>
       </c>
       <c r="J8">
-        <v>1.029264883838291</v>
+        <v>1.0367649662745</v>
       </c>
       <c r="K8">
-        <v>1.03448362651532</v>
+        <v>1.038475058879967</v>
       </c>
       <c r="L8">
-        <v>1.021849598674971</v>
+        <v>1.05443400957258</v>
       </c>
       <c r="M8">
-        <v>1.026331580138494</v>
+        <v>1.059637660942777</v>
       </c>
       <c r="N8">
-        <v>1.030726558031674</v>
+        <v>1.038237291445214</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9982313813042331</v>
+        <v>1.029813938838468</v>
       </c>
       <c r="D9">
-        <v>1.0166407594446</v>
+        <v>1.034299147006819</v>
       </c>
       <c r="E9">
-        <v>0.9979525838021762</v>
+        <v>1.048921454020306</v>
       </c>
       <c r="F9">
-        <v>1.001851471058069</v>
+        <v>1.054000329354389</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041434041862519</v>
+        <v>1.034973992667583</v>
       </c>
       <c r="J9">
-        <v>1.02384674901418</v>
+        <v>1.035652257410964</v>
       </c>
       <c r="K9">
-        <v>1.02946950047022</v>
+        <v>1.037467283186701</v>
       </c>
       <c r="L9">
-        <v>1.011078966476643</v>
+        <v>1.052042448600219</v>
       </c>
       <c r="M9">
-        <v>1.014914580688452</v>
+        <v>1.057105284571296</v>
       </c>
       <c r="N9">
-        <v>1.025300728834644</v>
+        <v>1.037123002407462</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9914775557777297</v>
+        <v>1.028524214065362</v>
       </c>
       <c r="D10">
-        <v>1.011777146116496</v>
+        <v>1.033337369678381</v>
       </c>
       <c r="E10">
-        <v>0.9889465130476627</v>
+        <v>1.047043182227397</v>
       </c>
       <c r="F10">
-        <v>0.9923936052820401</v>
+        <v>1.052029691262703</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039543062960032</v>
+        <v>1.034697787801856</v>
       </c>
       <c r="J10">
-        <v>1.020033434481303</v>
+        <v>1.034908100073474</v>
       </c>
       <c r="K10">
-        <v>1.02593696723592</v>
+        <v>1.036792508569441</v>
       </c>
       <c r="L10">
-        <v>1.003518251351419</v>
+        <v>1.050449783318762</v>
       </c>
       <c r="M10">
-        <v>1.006901567187833</v>
+        <v>1.055418978568751</v>
       </c>
       <c r="N10">
-        <v>1.021481998957737</v>
+        <v>1.036377788281197</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9884699247589287</v>
+        <v>1.027966009765311</v>
       </c>
       <c r="D11">
-        <v>1.009615814192134</v>
+        <v>1.032921085198608</v>
       </c>
       <c r="E11">
-        <v>0.9849317633890903</v>
+        <v>1.046230950705684</v>
       </c>
       <c r="F11">
-        <v>0.988177052225543</v>
+        <v>1.051177505696923</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03869017732283</v>
+        <v>1.03457685209397</v>
       </c>
       <c r="J11">
-        <v>1.018330361411702</v>
+        <v>1.034585323132806</v>
       </c>
       <c r="K11">
-        <v>1.024358640439251</v>
+        <v>1.036499640458303</v>
       </c>
       <c r="L11">
-        <v>1.000143551244801</v>
+        <v>1.049760536241487</v>
       </c>
       <c r="M11">
-        <v>1.003325430181359</v>
+        <v>1.05468924084015</v>
       </c>
       <c r="N11">
-        <v>1.019776507329031</v>
+        <v>1.03605455296025</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9873395793286612</v>
+        <v>1.027758707095373</v>
       </c>
       <c r="D12">
-        <v>1.008804273810097</v>
+        <v>1.03276648564201</v>
       </c>
       <c r="E12">
-        <v>0.9834220403065018</v>
+        <v>1.045929411703011</v>
       </c>
       <c r="F12">
-        <v>0.9865913842998956</v>
+        <v>1.050861132166141</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03836805674337</v>
+        <v>1.034531730714429</v>
       </c>
       <c r="J12">
-        <v>1.017689586654679</v>
+        <v>1.034465347183891</v>
       </c>
       <c r="K12">
-        <v>1.023764719592316</v>
+        <v>1.036390753897634</v>
       </c>
       <c r="L12">
-        <v>0.9988738921841172</v>
+        <v>1.049504576401472</v>
       </c>
       <c r="M12">
-        <v>1.001980061173832</v>
+        <v>1.054418249503041</v>
       </c>
       <c r="N12">
-        <v>1.019134822598356</v>
+        <v>1.035934406631725</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9875826500345811</v>
+        <v>1.027803172429956</v>
       </c>
       <c r="D13">
-        <v>1.008978753711057</v>
+        <v>1.0327996465279</v>
       </c>
       <c r="E13">
-        <v>0.9837467366949941</v>
+        <v>1.045994085623704</v>
       </c>
       <c r="F13">
-        <v>0.9869324167318111</v>
+        <v>1.050928987863728</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038437396871444</v>
+        <v>1.034541418468533</v>
       </c>
       <c r="J13">
-        <v>1.0178274115282</v>
+        <v>1.034491086141734</v>
       </c>
       <c r="K13">
-        <v>1.023892470011141</v>
+        <v>1.036414115051221</v>
       </c>
       <c r="L13">
-        <v>0.9991469857994477</v>
+        <v>1.049559478083074</v>
       </c>
       <c r="M13">
-        <v>1.002269435788427</v>
+        <v>1.054476375104659</v>
       </c>
       <c r="N13">
-        <v>1.019272843199006</v>
+        <v>1.035960182141841</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9883767629767828</v>
+        <v>1.027948873255563</v>
       </c>
       <c r="D14">
-        <v>1.009548912475881</v>
+        <v>1.032908305392178</v>
       </c>
       <c r="E14">
-        <v>0.9848073530851946</v>
+        <v>1.046206022141606</v>
       </c>
       <c r="F14">
-        <v>0.9880463847691027</v>
+        <v>1.051151350780012</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03866366049371</v>
+        <v>1.0345731264338</v>
       </c>
       <c r="J14">
-        <v>1.018277563904866</v>
+        <v>1.034575407556715</v>
       </c>
       <c r="K14">
-        <v>1.024309705078304</v>
+        <v>1.036490641943602</v>
       </c>
       <c r="L14">
-        <v>1.000038936215554</v>
+        <v>1.049739377359916</v>
       </c>
       <c r="M14">
-        <v>1.003214575333864</v>
+        <v>1.054666839275907</v>
       </c>
       <c r="N14">
-        <v>1.01972363484368</v>
+        <v>1.036044623302903</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9888642748534109</v>
+        <v>1.028038649573711</v>
       </c>
       <c r="D15">
-        <v>1.009899037173944</v>
+        <v>1.032975257325051</v>
       </c>
       <c r="E15">
-        <v>0.9854583499359157</v>
+        <v>1.046336624384381</v>
       </c>
       <c r="F15">
-        <v>0.988730120830126</v>
+        <v>1.051288377890145</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038802357651467</v>
+        <v>1.034592636205749</v>
       </c>
       <c r="J15">
-        <v>1.018553822100872</v>
+        <v>1.034627349889095</v>
       </c>
       <c r="K15">
-        <v>1.024565751729619</v>
+        <v>1.036537779155217</v>
       </c>
       <c r="L15">
-        <v>1.000586325848549</v>
+        <v>1.049850226793186</v>
       </c>
       <c r="M15">
-        <v>1.003794617479377</v>
+        <v>1.054784199221905</v>
       </c>
       <c r="N15">
-        <v>1.020000285358011</v>
+        <v>1.036096639399353</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9916753528609398</v>
+        <v>1.028561265700316</v>
       </c>
       <c r="D16">
-        <v>1.011919386073353</v>
+        <v>1.033365000829551</v>
       </c>
       <c r="E16">
-        <v>0.9892104360657455</v>
+        <v>1.047097109854272</v>
       </c>
       <c r="F16">
-        <v>0.9926707863701556</v>
+        <v>1.052086271375103</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039598931350555</v>
+        <v>1.034705785769767</v>
       </c>
       <c r="J16">
-        <v>1.020145336687385</v>
+        <v>1.03492951014742</v>
       </c>
       <c r="K16">
-        <v>1.026040660651863</v>
+        <v>1.036811930871012</v>
       </c>
       <c r="L16">
-        <v>1.003740011235852</v>
+        <v>1.05049553445561</v>
       </c>
       <c r="M16">
-        <v>1.007136574041335</v>
+        <v>1.055467418130184</v>
       </c>
       <c r="N16">
-        <v>1.021594060077787</v>
+        <v>1.036399228759904</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9934159329429934</v>
+        <v>1.028889157936669</v>
       </c>
       <c r="D17">
-        <v>1.013171597623679</v>
+        <v>1.033609523437014</v>
       </c>
       <c r="E17">
-        <v>0.9915324126799124</v>
+        <v>1.047574428610048</v>
       </c>
       <c r="F17">
-        <v>0.9951093612310969</v>
+        <v>1.052587066211389</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040089339779863</v>
+        <v>1.034776403799626</v>
       </c>
       <c r="J17">
-        <v>1.02112949975324</v>
+        <v>1.035118900025763</v>
       </c>
       <c r="K17">
-        <v>1.026952556290171</v>
+        <v>1.036983715833988</v>
       </c>
       <c r="L17">
-        <v>1.005690556362795</v>
+        <v>1.050900421937532</v>
       </c>
       <c r="M17">
-        <v>1.009203687914283</v>
+        <v>1.055896101477183</v>
       </c>
       <c r="N17">
-        <v>1.02257962076808</v>
+        <v>1.036588887593597</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9944232066754634</v>
+        <v>1.029080436474686</v>
       </c>
       <c r="D18">
-        <v>1.013896679566053</v>
+        <v>1.033752165794068</v>
       </c>
       <c r="E18">
-        <v>0.9928757652520742</v>
+        <v>1.04785294413064</v>
       </c>
       <c r="F18">
-        <v>0.996520132172916</v>
+        <v>1.052879278905315</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040372112891485</v>
+        <v>1.034817465054948</v>
       </c>
       <c r="J18">
-        <v>1.021698566796236</v>
+        <v>1.035229314640339</v>
       </c>
       <c r="K18">
-        <v>1.02747977344851</v>
+        <v>1.037083848830065</v>
       </c>
       <c r="L18">
-        <v>1.006818615935617</v>
+        <v>1.051136623410684</v>
       </c>
       <c r="M18">
-        <v>1.010399204240786</v>
+        <v>1.056146188113453</v>
       </c>
       <c r="N18">
-        <v>1.02314949595155</v>
+        <v>1.03669945900959</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9947653277894885</v>
+        <v>1.029145661647436</v>
       </c>
       <c r="D19">
-        <v>1.01414302473497</v>
+        <v>1.033800805904154</v>
       </c>
       <c r="E19">
-        <v>0.9933319793172308</v>
+        <v>1.047947928328574</v>
       </c>
       <c r="F19">
-        <v>0.9969992355481612</v>
+        <v>1.052978934159333</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040467981775946</v>
+        <v>1.034831443980475</v>
       </c>
       <c r="J19">
-        <v>1.021891770658016</v>
+        <v>1.03526695410923</v>
       </c>
       <c r="K19">
-        <v>1.027658757668279</v>
+        <v>1.037117980329855</v>
       </c>
       <c r="L19">
-        <v>1.007201645334783</v>
+        <v>1.051217168392712</v>
       </c>
       <c r="M19">
-        <v>1.010805145153438</v>
+        <v>1.056231468497758</v>
       </c>
       <c r="N19">
-        <v>1.023342974184974</v>
+        <v>1.036737151930844</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9932300150522202</v>
+        <v>1.028853975657276</v>
       </c>
       <c r="D20">
-        <v>1.01303779947053</v>
+        <v>1.033583286763896</v>
       </c>
       <c r="E20">
-        <v>0.9912844343287355</v>
+        <v>1.047523206120966</v>
       </c>
       <c r="F20">
-        <v>0.9948489345727012</v>
+        <v>1.052533324550138</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040037063628622</v>
+        <v>1.034768840498186</v>
       </c>
       <c r="J20">
-        <v>1.02102442600945</v>
+        <v>1.03509858579191</v>
       </c>
       <c r="K20">
-        <v>1.026855204577855</v>
+        <v>1.036965291781685</v>
       </c>
       <c r="L20">
-        <v>1.005482287460438</v>
+        <v>1.050856977475481</v>
       </c>
       <c r="M20">
-        <v>1.008982968044374</v>
+        <v>1.055850103381133</v>
       </c>
       <c r="N20">
-        <v>1.022474397807522</v>
+        <v>1.036568544511203</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9881432859813514</v>
+        <v>1.027905966902529</v>
       </c>
       <c r="D21">
-        <v>1.009381259227452</v>
+        <v>1.032876307308394</v>
       </c>
       <c r="E21">
-        <v>0.9844955477224371</v>
+        <v>1.046143607713617</v>
       </c>
       <c r="F21">
-        <v>0.9877188963918158</v>
+        <v>1.051085865866916</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038597180066835</v>
+        <v>1.034563794758963</v>
       </c>
       <c r="J21">
-        <v>1.018145234208607</v>
+        <v>1.034550579265791</v>
       </c>
       <c r="K21">
-        <v>1.024187054067747</v>
+        <v>1.036468109498882</v>
       </c>
       <c r="L21">
-        <v>0.9997767331160836</v>
+        <v>1.049686399935427</v>
       </c>
       <c r="M21">
-        <v>1.002936734257023</v>
+        <v>1.054610750517282</v>
       </c>
       <c r="N21">
-        <v>1.019591117224074</v>
+        <v>1.036019759752958</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9848684434960998</v>
+        <v>1.027310143793267</v>
       </c>
       <c r="D22">
-        <v>1.007031540052385</v>
+        <v>1.032431958305411</v>
       </c>
       <c r="E22">
-        <v>0.9801196067819677</v>
+        <v>1.045277124270229</v>
       </c>
       <c r="F22">
-        <v>0.9831227221037619</v>
+        <v>1.050176751745346</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03766097255096</v>
+        <v>1.034433714699707</v>
       </c>
       <c r="J22">
-        <v>1.016287448202088</v>
+        <v>1.034205550448199</v>
       </c>
       <c r="K22">
-        <v>1.022464975984468</v>
+        <v>1.036154919757433</v>
       </c>
       <c r="L22">
-        <v>0.9960954605393616</v>
+        <v>1.048950741901343</v>
       </c>
       <c r="M22">
-        <v>0.9990361029136826</v>
+        <v>1.053831900110513</v>
       </c>
       <c r="N22">
-        <v>1.017730692948334</v>
+        <v>1.03567424095487</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.986612001990261</v>
+        <v>1.027625979005321</v>
       </c>
       <c r="D23">
-        <v>1.008282121435892</v>
+        <v>1.03266750080863</v>
       </c>
       <c r="E23">
-        <v>0.9824499857387193</v>
+        <v>1.045736376270693</v>
       </c>
       <c r="F23">
-        <v>0.9855704156802103</v>
+        <v>1.050658599685171</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038160273455708</v>
+        <v>1.034502782381679</v>
       </c>
       <c r="J23">
-        <v>1.017276935837164</v>
+        <v>1.034388501579478</v>
       </c>
       <c r="K23">
-        <v>1.023382221328013</v>
+        <v>1.036321003367386</v>
       </c>
       <c r="L23">
-        <v>0.9980562327713546</v>
+        <v>1.049340697148122</v>
       </c>
       <c r="M23">
-        <v>1.001113667393382</v>
+        <v>1.054244747748251</v>
       </c>
       <c r="N23">
-        <v>1.018721585769349</v>
+        <v>1.035857451897741</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9933140479466283</v>
+        <v>1.02886987293915</v>
       </c>
       <c r="D24">
-        <v>1.013098273482423</v>
+        <v>1.033595141936413</v>
       </c>
       <c r="E24">
-        <v>0.9913965190310039</v>
+        <v>1.047546351038572</v>
       </c>
       <c r="F24">
-        <v>0.9949666459525136</v>
+        <v>1.052557607760925</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040060695073597</v>
+        <v>1.03477225842731</v>
       </c>
       <c r="J24">
-        <v>1.021071919668981</v>
+        <v>1.035107765084494</v>
       </c>
       <c r="K24">
-        <v>1.026899208052084</v>
+        <v>1.036973617022681</v>
       </c>
       <c r="L24">
-        <v>1.0055764249932</v>
+        <v>1.050876608041788</v>
       </c>
       <c r="M24">
-        <v>1.009082733285807</v>
+        <v>1.055870887807924</v>
       </c>
       <c r="N24">
-        <v>1.022521958913497</v>
+        <v>1.036577736839434</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000780491324368</v>
+        <v>1.030314301961396</v>
       </c>
       <c r="D25">
-        <v>1.01847999446835</v>
+        <v>1.034672258742623</v>
       </c>
       <c r="E25">
-        <v>1.001349699845959</v>
+        <v>1.049650792895054</v>
       </c>
       <c r="F25">
-        <v>1.005418644579876</v>
+        <v>1.054765523666331</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042138196309463</v>
+        <v>1.035079906584244</v>
       </c>
       <c r="J25">
-        <v>1.025281617342286</v>
+        <v>1.035940337043507</v>
       </c>
       <c r="K25">
-        <v>1.03079804917833</v>
+        <v>1.037728336419294</v>
       </c>
       <c r="L25">
-        <v>1.013927099533112</v>
+        <v>1.052660419970556</v>
       </c>
       <c r="M25">
-        <v>1.017933421432665</v>
+        <v>1.057759618747437</v>
       </c>
       <c r="N25">
-        <v>1.026737634840357</v>
+        <v>1.037411491146127</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_81/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_81/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031467113740999</v>
+        <v>1.00650753512169</v>
       </c>
       <c r="D2">
-        <v>1.035531834160866</v>
+        <v>1.022618960419177</v>
       </c>
       <c r="E2">
-        <v>1.051332613646209</v>
+        <v>1.008981134048431</v>
       </c>
       <c r="F2">
-        <v>1.056530000849288</v>
+        <v>1.013431280712909</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035321186475805</v>
+        <v>1.043698755514817</v>
       </c>
       <c r="J2">
-        <v>1.036602680376708</v>
+        <v>1.028495333925742</v>
       </c>
       <c r="K2">
-        <v>1.038328170421941</v>
+        <v>1.033771920506824</v>
       </c>
       <c r="L2">
-        <v>1.054084408225717</v>
+        <v>1.020316749496733</v>
       </c>
       <c r="M2">
-        <v>1.059267459768043</v>
+        <v>1.024706614814236</v>
       </c>
       <c r="N2">
-        <v>1.038074775082832</v>
+        <v>1.029955915269982</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03230456995521</v>
+        <v>1.010543664413831</v>
       </c>
       <c r="D3">
-        <v>1.036156212083558</v>
+        <v>1.025541305557067</v>
       </c>
       <c r="E3">
-        <v>1.052555716260776</v>
+        <v>1.014361136264139</v>
       </c>
       <c r="F3">
-        <v>1.057813192493796</v>
+        <v>1.019079260037582</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035493991641943</v>
+        <v>1.044778888272586</v>
       </c>
       <c r="J3">
-        <v>1.037082594133174</v>
+        <v>1.030750967812004</v>
       </c>
       <c r="K3">
-        <v>1.038762454573666</v>
+        <v>1.035857486736937</v>
       </c>
       <c r="L3">
-        <v>1.055119080381258</v>
+        <v>1.024813502976215</v>
       </c>
       <c r="M3">
-        <v>1.060363113860959</v>
+        <v>1.029473702320815</v>
       </c>
       <c r="N3">
-        <v>1.038555370371879</v>
+        <v>1.032214752415086</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03284664574786</v>
+        <v>1.013101826750633</v>
       </c>
       <c r="D4">
-        <v>1.036560334472244</v>
+        <v>1.027395745479661</v>
       </c>
       <c r="E4">
-        <v>1.053348056503081</v>
+        <v>1.017772933067085</v>
       </c>
       <c r="F4">
-        <v>1.058644448253293</v>
+        <v>1.022660634504482</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035604701691443</v>
+        <v>1.04545419086684</v>
       </c>
       <c r="J4">
-        <v>1.037392660709816</v>
+        <v>1.032176222186552</v>
       </c>
       <c r="K4">
-        <v>1.039042882967115</v>
+        <v>1.037174400028509</v>
       </c>
       <c r="L4">
-        <v>1.055788927128594</v>
+        <v>1.027661484254568</v>
       </c>
       <c r="M4">
-        <v>1.061072464738002</v>
+        <v>1.032493047173904</v>
       </c>
       <c r="N4">
-        <v>1.038865877278625</v>
+        <v>1.033642030814324</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033074577807439</v>
+        <v>1.014164902209974</v>
       </c>
       <c r="D5">
-        <v>1.036730252095992</v>
+        <v>1.028166869234173</v>
       </c>
       <c r="E5">
-        <v>1.053681375292724</v>
+        <v>1.019191342212233</v>
       </c>
       <c r="F5">
-        <v>1.05899413523252</v>
+        <v>1.024149454593894</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035650978843097</v>
+        <v>1.045732558979208</v>
       </c>
       <c r="J5">
-        <v>1.037522899481397</v>
+        <v>1.032767428148817</v>
       </c>
       <c r="K5">
-        <v>1.039160634759524</v>
+        <v>1.037720441675814</v>
       </c>
       <c r="L5">
-        <v>1.05607061391045</v>
+        <v>1.028844598153844</v>
       </c>
       <c r="M5">
-        <v>1.061370769700054</v>
+        <v>1.033747379380051</v>
       </c>
       <c r="N5">
-        <v>1.0389963010042</v>
+        <v>1.034234076356868</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033112851117708</v>
+        <v>1.01434268357028</v>
       </c>
       <c r="D6">
-        <v>1.036758783415346</v>
+        <v>1.028295854148947</v>
       </c>
       <c r="E6">
-        <v>1.053737353848258</v>
+        <v>1.019428586276562</v>
       </c>
       <c r="F6">
-        <v>1.05905286255421</v>
+        <v>1.02439847038246</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035658733406488</v>
+        <v>1.04577897747921</v>
       </c>
       <c r="J6">
-        <v>1.037544760482822</v>
+        <v>1.032866233515574</v>
       </c>
       <c r="K6">
-        <v>1.039180397551244</v>
+        <v>1.03781168545103</v>
       </c>
       <c r="L6">
-        <v>1.056117915260355</v>
+        <v>1.029042433587129</v>
       </c>
       <c r="M6">
-        <v>1.061420861937784</v>
+        <v>1.033957125251515</v>
       </c>
       <c r="N6">
-        <v>1.039018193050755</v>
+        <v>1.034333022038578</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032849691217979</v>
+        <v>1.013116079694468</v>
       </c>
       <c r="D7">
-        <v>1.036562604824954</v>
+        <v>1.027406082270915</v>
       </c>
       <c r="E7">
-        <v>1.05335250946366</v>
+        <v>1.017791947524963</v>
       </c>
       <c r="F7">
-        <v>1.058649119894582</v>
+        <v>1.022680593207324</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035605321092246</v>
+        <v>1.04545793200018</v>
       </c>
       <c r="J7">
-        <v>1.037394401412483</v>
+        <v>1.032184152922685</v>
       </c>
       <c r="K7">
-        <v>1.0390444569247</v>
+        <v>1.037181725807707</v>
       </c>
       <c r="L7">
-        <v>1.055792690713323</v>
+        <v>1.027677348020473</v>
       </c>
       <c r="M7">
-        <v>1.061076450333927</v>
+        <v>1.032509865757957</v>
       </c>
       <c r="N7">
-        <v>1.03886762045329</v>
+        <v>1.033649972813012</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031750096928357</v>
+        <v>1.007882902598763</v>
       </c>
       <c r="D8">
-        <v>1.035742822427427</v>
+        <v>1.023614300594957</v>
       </c>
       <c r="E8">
-        <v>1.051745778763438</v>
+        <v>1.010814146174188</v>
       </c>
       <c r="F8">
-        <v>1.056963466311568</v>
+        <v>1.015355670138187</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03537981560708</v>
+        <v>1.044068758282328</v>
       </c>
       <c r="J8">
-        <v>1.0367649662745</v>
+        <v>1.02926488383829</v>
       </c>
       <c r="K8">
-        <v>1.038475058879967</v>
+        <v>1.03448362651532</v>
       </c>
       <c r="L8">
-        <v>1.05443400957258</v>
+        <v>1.021849598674969</v>
       </c>
       <c r="M8">
-        <v>1.059637660942777</v>
+        <v>1.026331580138492</v>
       </c>
       <c r="N8">
-        <v>1.038237291445214</v>
+        <v>1.030726558031673</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029813938838468</v>
+        <v>0.9982313813042331</v>
       </c>
       <c r="D9">
-        <v>1.034299147006819</v>
+        <v>1.0166407594446</v>
       </c>
       <c r="E9">
-        <v>1.048921454020306</v>
+        <v>0.9979525838021774</v>
       </c>
       <c r="F9">
-        <v>1.054000329354389</v>
+        <v>1.001851471058069</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034973992667583</v>
+        <v>1.041434041862519</v>
       </c>
       <c r="J9">
-        <v>1.035652257410964</v>
+        <v>1.023846749014181</v>
       </c>
       <c r="K9">
-        <v>1.037467283186701</v>
+        <v>1.02946950047022</v>
       </c>
       <c r="L9">
-        <v>1.052042448600219</v>
+        <v>1.011078966476644</v>
       </c>
       <c r="M9">
-        <v>1.057105284571296</v>
+        <v>1.014914580688453</v>
       </c>
       <c r="N9">
-        <v>1.037123002407462</v>
+        <v>1.025300728834644</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028524214065362</v>
+        <v>0.9914775557777296</v>
       </c>
       <c r="D10">
-        <v>1.033337369678381</v>
+        <v>1.011777146116496</v>
       </c>
       <c r="E10">
-        <v>1.047043182227397</v>
+        <v>0.9889465130476621</v>
       </c>
       <c r="F10">
-        <v>1.052029691262703</v>
+        <v>0.9923936052820392</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034697787801856</v>
+        <v>1.039543062960032</v>
       </c>
       <c r="J10">
-        <v>1.034908100073474</v>
+        <v>1.020033434481303</v>
       </c>
       <c r="K10">
-        <v>1.036792508569441</v>
+        <v>1.02593696723592</v>
       </c>
       <c r="L10">
-        <v>1.050449783318762</v>
+        <v>1.003518251351418</v>
       </c>
       <c r="M10">
-        <v>1.055418978568751</v>
+        <v>1.006901567187832</v>
       </c>
       <c r="N10">
-        <v>1.036377788281197</v>
+        <v>1.021481998957736</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027966009765311</v>
+        <v>0.988469924758928</v>
       </c>
       <c r="D11">
-        <v>1.032921085198608</v>
+        <v>1.009615814192134</v>
       </c>
       <c r="E11">
-        <v>1.046230950705684</v>
+        <v>0.9849317633890903</v>
       </c>
       <c r="F11">
-        <v>1.051177505696923</v>
+        <v>0.988177052225543</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03457685209397</v>
+        <v>1.038690177322829</v>
       </c>
       <c r="J11">
-        <v>1.034585323132806</v>
+        <v>1.018330361411701</v>
       </c>
       <c r="K11">
-        <v>1.036499640458303</v>
+        <v>1.02435864043925</v>
       </c>
       <c r="L11">
-        <v>1.049760536241487</v>
+        <v>1.000143551244801</v>
       </c>
       <c r="M11">
-        <v>1.05468924084015</v>
+        <v>1.003325430181359</v>
       </c>
       <c r="N11">
-        <v>1.03605455296025</v>
+        <v>1.019776507329031</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027758707095373</v>
+        <v>0.9873395793286608</v>
       </c>
       <c r="D12">
-        <v>1.03276648564201</v>
+        <v>1.008804273810096</v>
       </c>
       <c r="E12">
-        <v>1.045929411703011</v>
+        <v>0.9834220403065018</v>
       </c>
       <c r="F12">
-        <v>1.050861132166141</v>
+        <v>0.9865913842998955</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034531730714429</v>
+        <v>1.03836805674337</v>
       </c>
       <c r="J12">
-        <v>1.034465347183891</v>
+        <v>1.017689586654679</v>
       </c>
       <c r="K12">
-        <v>1.036390753897634</v>
+        <v>1.023764719592315</v>
       </c>
       <c r="L12">
-        <v>1.049504576401472</v>
+        <v>0.9988738921841172</v>
       </c>
       <c r="M12">
-        <v>1.054418249503041</v>
+        <v>1.001980061173832</v>
       </c>
       <c r="N12">
-        <v>1.035934406631725</v>
+        <v>1.019134822598356</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027803172429956</v>
+        <v>0.9875826500345802</v>
       </c>
       <c r="D13">
-        <v>1.0327996465279</v>
+        <v>1.008978753711056</v>
       </c>
       <c r="E13">
-        <v>1.045994085623704</v>
+        <v>0.983746736694994</v>
       </c>
       <c r="F13">
-        <v>1.050928987863728</v>
+        <v>0.986932416731811</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034541418468533</v>
+        <v>1.038437396871443</v>
       </c>
       <c r="J13">
-        <v>1.034491086141734</v>
+        <v>1.017827411528199</v>
       </c>
       <c r="K13">
-        <v>1.036414115051221</v>
+        <v>1.02389247001114</v>
       </c>
       <c r="L13">
-        <v>1.049559478083074</v>
+        <v>0.9991469857994477</v>
       </c>
       <c r="M13">
-        <v>1.054476375104659</v>
+        <v>1.002269435788427</v>
       </c>
       <c r="N13">
-        <v>1.035960182141841</v>
+        <v>1.019272843199005</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027948873255563</v>
+        <v>0.9883767629767828</v>
       </c>
       <c r="D14">
-        <v>1.032908305392178</v>
+        <v>1.009548912475881</v>
       </c>
       <c r="E14">
-        <v>1.046206022141606</v>
+        <v>0.9848073530851952</v>
       </c>
       <c r="F14">
-        <v>1.051151350780012</v>
+        <v>0.988046384769103</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0345731264338</v>
+        <v>1.03866366049371</v>
       </c>
       <c r="J14">
-        <v>1.034575407556715</v>
+        <v>1.018277563904866</v>
       </c>
       <c r="K14">
-        <v>1.036490641943602</v>
+        <v>1.024309705078304</v>
       </c>
       <c r="L14">
-        <v>1.049739377359916</v>
+        <v>1.000038936215554</v>
       </c>
       <c r="M14">
-        <v>1.054666839275907</v>
+        <v>1.003214575333864</v>
       </c>
       <c r="N14">
-        <v>1.036044623302903</v>
+        <v>1.01972363484368</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028038649573711</v>
+        <v>0.9888642748534112</v>
       </c>
       <c r="D15">
-        <v>1.032975257325051</v>
+        <v>1.009899037173944</v>
       </c>
       <c r="E15">
-        <v>1.046336624384381</v>
+        <v>0.985458349935916</v>
       </c>
       <c r="F15">
-        <v>1.051288377890145</v>
+        <v>0.9887301208301265</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034592636205749</v>
+        <v>1.038802357651467</v>
       </c>
       <c r="J15">
-        <v>1.034627349889095</v>
+        <v>1.018553822100873</v>
       </c>
       <c r="K15">
-        <v>1.036537779155217</v>
+        <v>1.02456575172962</v>
       </c>
       <c r="L15">
-        <v>1.049850226793186</v>
+        <v>1.000586325848549</v>
       </c>
       <c r="M15">
-        <v>1.054784199221905</v>
+        <v>1.003794617479377</v>
       </c>
       <c r="N15">
-        <v>1.036096639399353</v>
+        <v>1.020000285358012</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028561265700316</v>
+        <v>0.9916753528609397</v>
       </c>
       <c r="D16">
-        <v>1.033365000829551</v>
+        <v>1.011919386073353</v>
       </c>
       <c r="E16">
-        <v>1.047097109854272</v>
+        <v>0.9892104360657458</v>
       </c>
       <c r="F16">
-        <v>1.052086271375103</v>
+        <v>0.9926707863701553</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034705785769767</v>
+        <v>1.039598931350555</v>
       </c>
       <c r="J16">
-        <v>1.03492951014742</v>
+        <v>1.020145336687385</v>
       </c>
       <c r="K16">
-        <v>1.036811930871012</v>
+        <v>1.026040660651863</v>
       </c>
       <c r="L16">
-        <v>1.05049553445561</v>
+        <v>1.003740011235852</v>
       </c>
       <c r="M16">
-        <v>1.055467418130184</v>
+        <v>1.007136574041334</v>
       </c>
       <c r="N16">
-        <v>1.036399228759904</v>
+        <v>1.021594060077787</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028889157936669</v>
+        <v>0.993415932942993</v>
       </c>
       <c r="D17">
-        <v>1.033609523437014</v>
+        <v>1.013171597623679</v>
       </c>
       <c r="E17">
-        <v>1.047574428610048</v>
+        <v>0.991532412679912</v>
       </c>
       <c r="F17">
-        <v>1.052587066211389</v>
+        <v>0.9951093612310966</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034776403799626</v>
+        <v>1.040089339779863</v>
       </c>
       <c r="J17">
-        <v>1.035118900025763</v>
+        <v>1.02112949975324</v>
       </c>
       <c r="K17">
-        <v>1.036983715833988</v>
+        <v>1.02695255629017</v>
       </c>
       <c r="L17">
-        <v>1.050900421937532</v>
+        <v>1.005690556362795</v>
       </c>
       <c r="M17">
-        <v>1.055896101477183</v>
+        <v>1.009203687914283</v>
       </c>
       <c r="N17">
-        <v>1.036588887593597</v>
+        <v>1.02257962076808</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029080436474686</v>
+        <v>0.9944232066754635</v>
       </c>
       <c r="D18">
-        <v>1.033752165794068</v>
+        <v>1.013896679566053</v>
       </c>
       <c r="E18">
-        <v>1.04785294413064</v>
+        <v>0.9928757652520744</v>
       </c>
       <c r="F18">
-        <v>1.052879278905315</v>
+        <v>0.9965201321729164</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034817465054948</v>
+        <v>1.040372112891485</v>
       </c>
       <c r="J18">
-        <v>1.035229314640339</v>
+        <v>1.021698566796236</v>
       </c>
       <c r="K18">
-        <v>1.037083848830065</v>
+        <v>1.027479773448511</v>
       </c>
       <c r="L18">
-        <v>1.051136623410684</v>
+        <v>1.006818615935617</v>
       </c>
       <c r="M18">
-        <v>1.056146188113453</v>
+        <v>1.010399204240787</v>
       </c>
       <c r="N18">
-        <v>1.03669945900959</v>
+        <v>1.02314949595155</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029145661647436</v>
+        <v>0.994765327789488</v>
       </c>
       <c r="D19">
-        <v>1.033800805904154</v>
+        <v>1.01414302473497</v>
       </c>
       <c r="E19">
-        <v>1.047947928328574</v>
+        <v>0.9933319793172311</v>
       </c>
       <c r="F19">
-        <v>1.052978934159333</v>
+        <v>0.9969992355481615</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034831443980475</v>
+        <v>1.040467981775945</v>
       </c>
       <c r="J19">
-        <v>1.03526695410923</v>
+        <v>1.021891770658016</v>
       </c>
       <c r="K19">
-        <v>1.037117980329855</v>
+        <v>1.027658757668279</v>
       </c>
       <c r="L19">
-        <v>1.051217168392712</v>
+        <v>1.007201645334784</v>
       </c>
       <c r="M19">
-        <v>1.056231468497758</v>
+        <v>1.010805145153438</v>
       </c>
       <c r="N19">
-        <v>1.036737151930844</v>
+        <v>1.023342974184974</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028853975657276</v>
+        <v>0.9932300150522196</v>
       </c>
       <c r="D20">
-        <v>1.033583286763896</v>
+        <v>1.013037799470529</v>
       </c>
       <c r="E20">
-        <v>1.047523206120966</v>
+        <v>0.9912844343287355</v>
       </c>
       <c r="F20">
-        <v>1.052533324550138</v>
+        <v>0.9948489345727008</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034768840498186</v>
+        <v>1.040037063628622</v>
       </c>
       <c r="J20">
-        <v>1.03509858579191</v>
+        <v>1.02102442600945</v>
       </c>
       <c r="K20">
-        <v>1.036965291781685</v>
+        <v>1.026855204577854</v>
       </c>
       <c r="L20">
-        <v>1.050856977475481</v>
+        <v>1.005482287460438</v>
       </c>
       <c r="M20">
-        <v>1.055850103381133</v>
+        <v>1.008982968044374</v>
       </c>
       <c r="N20">
-        <v>1.036568544511203</v>
+        <v>1.022474397807521</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027905966902529</v>
+        <v>0.9881432859813513</v>
       </c>
       <c r="D21">
-        <v>1.032876307308394</v>
+        <v>1.009381259227452</v>
       </c>
       <c r="E21">
-        <v>1.046143607713617</v>
+        <v>0.9844955477224372</v>
       </c>
       <c r="F21">
-        <v>1.051085865866916</v>
+        <v>0.9877188963918156</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034563794758963</v>
+        <v>1.038597180066835</v>
       </c>
       <c r="J21">
-        <v>1.034550579265791</v>
+        <v>1.018145234208607</v>
       </c>
       <c r="K21">
-        <v>1.036468109498882</v>
+        <v>1.024187054067747</v>
       </c>
       <c r="L21">
-        <v>1.049686399935427</v>
+        <v>0.9997767331160838</v>
       </c>
       <c r="M21">
-        <v>1.054610750517282</v>
+        <v>1.002936734257023</v>
       </c>
       <c r="N21">
-        <v>1.036019759752958</v>
+        <v>1.019591117224074</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027310143793267</v>
+        <v>0.9848684434961003</v>
       </c>
       <c r="D22">
-        <v>1.032431958305411</v>
+        <v>1.007031540052385</v>
       </c>
       <c r="E22">
-        <v>1.045277124270229</v>
+        <v>0.9801196067819682</v>
       </c>
       <c r="F22">
-        <v>1.050176751745346</v>
+        <v>0.9831227221037622</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034433714699707</v>
+        <v>1.03766097255096</v>
       </c>
       <c r="J22">
-        <v>1.034205550448199</v>
+        <v>1.016287448202088</v>
       </c>
       <c r="K22">
-        <v>1.036154919757433</v>
+        <v>1.022464975984468</v>
       </c>
       <c r="L22">
-        <v>1.048950741901343</v>
+        <v>0.9960954605393618</v>
       </c>
       <c r="M22">
-        <v>1.053831900110513</v>
+        <v>0.9990361029136829</v>
       </c>
       <c r="N22">
-        <v>1.03567424095487</v>
+        <v>1.017730692948335</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027625979005321</v>
+        <v>0.9866120019902604</v>
       </c>
       <c r="D23">
-        <v>1.03266750080863</v>
+        <v>1.008282121435892</v>
       </c>
       <c r="E23">
-        <v>1.045736376270693</v>
+        <v>0.9824499857387187</v>
       </c>
       <c r="F23">
-        <v>1.050658599685171</v>
+        <v>0.9855704156802095</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034502782381679</v>
+        <v>1.038160273455707</v>
       </c>
       <c r="J23">
-        <v>1.034388501579478</v>
+        <v>1.017276935837164</v>
       </c>
       <c r="K23">
-        <v>1.036321003367386</v>
+        <v>1.023382221328013</v>
       </c>
       <c r="L23">
-        <v>1.049340697148122</v>
+        <v>0.9980562327713538</v>
       </c>
       <c r="M23">
-        <v>1.054244747748251</v>
+        <v>1.001113667393381</v>
       </c>
       <c r="N23">
-        <v>1.035857451897741</v>
+        <v>1.018721585769348</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02886987293915</v>
+        <v>0.9933140479466285</v>
       </c>
       <c r="D24">
-        <v>1.033595141936413</v>
+        <v>1.013098273482423</v>
       </c>
       <c r="E24">
-        <v>1.047546351038572</v>
+        <v>0.9913965190310043</v>
       </c>
       <c r="F24">
-        <v>1.052557607760925</v>
+        <v>0.9949666459525139</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03477225842731</v>
+        <v>1.040060695073597</v>
       </c>
       <c r="J24">
-        <v>1.035107765084494</v>
+        <v>1.021071919668981</v>
       </c>
       <c r="K24">
-        <v>1.036973617022681</v>
+        <v>1.026899208052085</v>
       </c>
       <c r="L24">
-        <v>1.050876608041788</v>
+        <v>1.0055764249932</v>
       </c>
       <c r="M24">
-        <v>1.055870887807924</v>
+        <v>1.009082733285808</v>
       </c>
       <c r="N24">
-        <v>1.036577736839434</v>
+        <v>1.022521958913497</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030314301961396</v>
+        <v>1.000780491324367</v>
       </c>
       <c r="D25">
-        <v>1.034672258742623</v>
+        <v>1.018479994468349</v>
       </c>
       <c r="E25">
-        <v>1.049650792895054</v>
+        <v>1.001349699845959</v>
       </c>
       <c r="F25">
-        <v>1.054765523666331</v>
+        <v>1.005418644579875</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035079906584244</v>
+        <v>1.042138196309462</v>
       </c>
       <c r="J25">
-        <v>1.035940337043507</v>
+        <v>1.025281617342285</v>
       </c>
       <c r="K25">
-        <v>1.037728336419294</v>
+        <v>1.030798049178329</v>
       </c>
       <c r="L25">
-        <v>1.052660419970556</v>
+        <v>1.013927099533112</v>
       </c>
       <c r="M25">
-        <v>1.057759618747437</v>
+        <v>1.017933421432665</v>
       </c>
       <c r="N25">
-        <v>1.037411491146127</v>
+        <v>1.026737634840357</v>
       </c>
     </row>
   </sheetData>
